--- a/dash1/data.xlsx
+++ b/dash1/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29609"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E06C451-DE0D-4AF2-A09B-54D068A250DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5A060B6-8A3F-43A4-B60B-794B3E710912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="55">
   <si>
     <t>BOX P</t>
   </si>
@@ -157,13 +157,16 @@
     <t>ELETRODO</t>
   </si>
   <si>
+    <t>METALICO / CONDUTOR</t>
+  </si>
+  <si>
     <t>KG</t>
   </si>
   <si>
     <t>CASA SUL LTDA</t>
   </si>
   <si>
-    <t>INOX</t>
+    <t>ACO INOXIDAVEL</t>
   </si>
   <si>
     <t>TAMPA ACABAMENTO CANOPLA 18 X 10 X 5 MM</t>
@@ -175,6 +178,9 @@
     <t>ARRUELA 17 X 9 X 1 MM</t>
   </si>
   <si>
+    <t>PLANA</t>
+  </si>
+  <si>
     <t>LATAO</t>
   </si>
   <si>
@@ -185,6 +191,12 @@
   </si>
   <si>
     <t>ARRUELA 19 X 10 X 1 MM</t>
+  </si>
+  <si>
+    <t>ALLEN</t>
+  </si>
+  <si>
+    <t>TORX</t>
   </si>
 </sst>
 </file>
@@ -255,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -288,6 +300,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -683,7 +701,7 @@
         <name val="Courier New"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="#\ ??/16"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -911,8 +929,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B65A78C-FEED-4175-84A1-8521D4F22ED3}" name="Tabela1" displayName="Tabela1" ref="A1:S42" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
-  <autoFilter ref="A1:S42" xr:uid="{4B65A78C-FEED-4175-84A1-8521D4F22ED3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B65A78C-FEED-4175-84A1-8521D4F22ED3}" name="Tabela1" displayName="Tabela1" ref="A1:S55" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
+  <autoFilter ref="A1:S55" xr:uid="{4B65A78C-FEED-4175-84A1-8521D4F22ED3}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{5F8AC72A-A15A-4E10-9ED7-3BA5C4DAB17A}" name="DATA" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{A1AC0E71-6B37-4055-A48D-3F7A68E226B3}" name="DESCRICAO" dataDxfId="17"/>
@@ -920,15 +938,21 @@
     <tableColumn id="4" xr3:uid="{1F357500-6E37-4A77-B4D4-07F9450033A2}" name="MATERIAL" dataDxfId="15"/>
     <tableColumn id="18" xr3:uid="{FD84E169-D726-4C8A-B8BF-075E136AB9A5}" name="DIAMETRO CABECA (mm)" dataDxfId="14"/>
     <tableColumn id="17" xr3:uid="{53E92A60-6356-4EF3-8965-193E815C3562}" name="DIAMETRO CABECA (in)" dataDxfId="13">
-      <calculatedColumnFormula>CONVERT(E2,"mm","in")</calculatedColumnFormula>
+      <calculatedColumnFormula>IFERROR(IF(ROUND(CONVERT(E2,"mm","in")*16,0)/16=INT(ROUND(CONVERT(E2,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(E2,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(E2,"mm","in")*16,0)/16,"??/??")), "-")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{007263A4-0132-4770-8AE9-B21774BEB53F}" name="DIAMETRO ROSCA (mm)" dataDxfId="12"/>
     <tableColumn id="6" xr3:uid="{66FEA80B-B59D-416A-8F8A-2195A1C7F5E7}" name="DIAMETRO ROSCA (in)" dataDxfId="11">
-      <calculatedColumnFormula>CONVERT(G2,"mm","in")</calculatedColumnFormula>
+      <calculatedColumnFormula>IFERROR(IF(ROUND(CONVERT(G2,"mm","in")*16,0)/16=INT(ROUND(CONVERT(G2,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(G2,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(G2,"mm","in")*16,0)/16,"??/??")), "-")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{94104AD2-6513-4E9E-B5D1-DC7CD4177AE4}" name="COMPRIMENTO ROSCA (mm)" dataDxfId="10"/>
     <tableColumn id="8" xr3:uid="{7AFE2B39-79EC-48B8-909D-98196199A03C}" name="COMPRIMENTO ROSCA (in)" dataDxfId="9">
-      <calculatedColumnFormula>CONVERT(I2,"mm","in")</calculatedColumnFormula>
+      <calculatedColumnFormula>IFERROR(IF(ROUND(CONVERT(I2,"mm","in")*16,0)/16=INT(ROUND(CONVERT(I2,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(I2,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(I2,"mm","in")*16,0)/16,"??/??")), "-")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{36B5A4A1-76C6-48FC-9A7A-9D05565A3EE8}" name="UNIDADE" dataDxfId="8"/>
     <tableColumn id="10" xr3:uid="{9CA3A53B-43A4-4A45-A27E-3951615EA56C}" name="QUANTIDADE" dataDxfId="7"/>
@@ -1266,7 +1290,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="24.75" customHeight="1"/>
@@ -1279,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1291,7 +1315,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="1">
-        <v>460</v>
+        <v>318</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -1308,19 +1332,16 @@
     </row>
     <row r="3" spans="1:14" ht="24.75" customHeight="1">
       <c r="A3" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1">
         <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>124</v>
       </c>
       <c r="J3" s="1">
         <v>10</v>
@@ -1340,16 +1361,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>766</v>
+        <v>672</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1">
-        <v>4208</v>
-      </c>
       <c r="G4" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>9436</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>5</v>
@@ -1370,21 +1391,21 @@
       </c>
       <c r="B6" s="8">
         <f>A3*(B4-B1)/B3</f>
-        <v>343</v>
+        <v>111.53846153846153</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="8" t="e">
         <f>D3*(E4-E1)/E3</f>
-        <v>3974</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="8" t="e">
+      <c r="H6" s="8">
         <f>G3*(H4-H1)/H3</f>
-        <v>#DIV/0!</v>
+        <v>367.66129032258067</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>6</v>
@@ -1407,21 +1428,21 @@
       </c>
       <c r="B7" s="10">
         <f>A3/B3</f>
-        <v>0.5</v>
+        <v>0.19230769230769232</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="10" t="e">
         <f>D3/E3</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="10" t="e">
+      <c r="H7" s="10">
         <f>G3/H3</f>
-        <v>#DIV/0!</v>
+        <v>4.0322580645161289E-2</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>7</v>
@@ -1445,10 +1466,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953A766B-E77D-47BA-871B-06064430727A}">
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="24.75" customHeight="1"/>
@@ -1537,23 +1558,29 @@
       <c r="E2" s="3">
         <v>10</v>
       </c>
-      <c r="F2" s="9">
-        <f>CONVERT(E2,"mm","in")</f>
-        <v>0.39370078740157483</v>
+      <c r="F2" s="13" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(E2,"mm","in")*16,0)/16=INT(ROUND(CONVERT(E2,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(E2,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(E2,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 3/8 </v>
       </c>
       <c r="G2" s="3">
         <v>5</v>
       </c>
-      <c r="H2" s="9">
-        <f>CONVERT(G2,"mm","in")</f>
-        <v>0.19685039370078741</v>
+      <c r="H2" s="13" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(G2,"mm","in")*16,0)/16=INT(ROUND(CONVERT(G2,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(G2,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(G2,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="I2" s="3">
         <v>9</v>
       </c>
-      <c r="J2" s="9">
-        <f>CONVERT(I2,"mm","in")</f>
-        <v>0.3543307086614173</v>
+      <c r="J2" s="13" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(I2,"mm","in")*16,0)/16=INT(ROUND(CONVERT(I2,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(I2,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(I2,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 3/8 </v>
       </c>
       <c r="K2" s="3" t="s">
         <v>30</v>
@@ -1592,23 +1619,29 @@
       <c r="E3" s="3">
         <v>9</v>
       </c>
-      <c r="F3" s="9">
-        <f>CONVERT(E3,"mm","in")</f>
-        <v>0.3543307086614173</v>
+      <c r="F3" s="13" t="str">
+        <f t="shared" ref="F3:F43" si="0">IFERROR(IF(ROUND(CONVERT(E3,"mm","in")*16,0)/16=INT(ROUND(CONVERT(E3,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(E3,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(E3,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 3/8 </v>
       </c>
       <c r="G3" s="3">
         <v>5</v>
       </c>
-      <c r="H3" s="9">
-        <f>CONVERT(G3,"mm","in")</f>
-        <v>0.19685039370078741</v>
+      <c r="H3" s="13" t="str">
+        <f t="shared" ref="H3:H43" si="1">IFERROR(IF(ROUND(CONVERT(G3,"mm","in")*16,0)/16=INT(ROUND(CONVERT(G3,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(G3,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(G3,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="I3" s="3">
         <v>15</v>
       </c>
-      <c r="J3" s="9">
-        <f>CONVERT(I3,"mm","in")</f>
-        <v>0.59055118110236215</v>
+      <c r="J3" s="13" t="str">
+        <f t="shared" ref="J3:J43" si="2">IFERROR(IF(ROUND(CONVERT(I3,"mm","in")*16,0)/16=INT(ROUND(CONVERT(I3,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(I3,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(I3,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 9/16</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>30</v>
@@ -1645,23 +1678,23 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="9">
-        <f>CONVERT(E4,"mm","in")</f>
-        <v>0.39370078740157483</v>
+      <c r="F4" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 3/8 </v>
       </c>
       <c r="G4" s="3">
         <v>5</v>
       </c>
-      <c r="H4" s="9">
-        <f>CONVERT(G4,"mm","in")</f>
-        <v>0.19685039370078741</v>
+      <c r="H4" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="I4" s="3">
         <v>20</v>
       </c>
-      <c r="J4" s="9">
-        <f>CONVERT(I4,"mm","in")</f>
-        <v>0.78740157480314965</v>
+      <c r="J4" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>13/16</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>30</v>
@@ -1698,23 +1731,23 @@
       <c r="E5" s="3">
         <v>9</v>
       </c>
-      <c r="F5" s="9">
-        <f>CONVERT(E5,"mm","in")</f>
-        <v>0.3543307086614173</v>
+      <c r="F5" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 3/8 </v>
       </c>
       <c r="G5" s="3">
         <v>5</v>
       </c>
-      <c r="H5" s="9">
-        <f>CONVERT(G5,"mm","in")</f>
-        <v>0.19685039370078741</v>
+      <c r="H5" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="I5" s="3">
         <v>20</v>
       </c>
-      <c r="J5" s="9">
-        <f>CONVERT(I5,"mm","in")</f>
-        <v>0.78740157480314965</v>
+      <c r="J5" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>13/16</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>30</v>
@@ -1751,20 +1784,23 @@
       <c r="E6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>35</v>
+      <c r="F6" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>35</v>
+      <c r="H6" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>35</v>
+      <c r="J6" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>30</v>
@@ -1805,20 +1841,23 @@
       <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>35</v>
+      <c r="F7" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>35</v>
+      <c r="H7" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>35</v>
+      <c r="J7" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>30</v>
@@ -1859,23 +1898,23 @@
       <c r="E8" s="3">
         <v>8</v>
       </c>
-      <c r="F8" s="9">
-        <f>CONVERT(E8,"mm","in")</f>
-        <v>0.31496062992125984</v>
+      <c r="F8" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 5/16</v>
       </c>
       <c r="G8" s="3">
         <v>2</v>
       </c>
-      <c r="H8" s="9">
-        <f>CONVERT(G8,"mm","in")</f>
-        <v>7.874015748031496E-2</v>
+      <c r="H8" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 1/16</v>
       </c>
       <c r="I8" s="3">
         <v>20</v>
       </c>
-      <c r="J8" s="9">
-        <f>CONVERT(I8,"mm","in")</f>
-        <v>0.78740157480314965</v>
+      <c r="J8" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>13/16</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>30</v>
@@ -1912,23 +1951,23 @@
       <c r="E9" s="3">
         <v>5</v>
       </c>
-      <c r="F9" s="9">
-        <f>CONVERT(E9,"mm","in")</f>
-        <v>0.19685039370078741</v>
+      <c r="F9" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="G9" s="3">
         <v>4</v>
       </c>
-      <c r="H9" s="9">
-        <f>CONVERT(G9,"mm","in")</f>
-        <v>0.15748031496062992</v>
+      <c r="H9" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="I9" s="3">
         <v>25</v>
       </c>
-      <c r="J9" s="9">
-        <f>CONVERT(I9,"mm","in")</f>
-        <v>0.98425196850393704</v>
+      <c r="J9" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>30</v>
@@ -1965,23 +2004,23 @@
       <c r="E10" s="3">
         <v>8</v>
       </c>
-      <c r="F10" s="9">
-        <f>CONVERT(E10,"mm","in")</f>
-        <v>0.31496062992125984</v>
+      <c r="F10" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 5/16</v>
       </c>
       <c r="G10" s="3">
         <v>4</v>
       </c>
-      <c r="H10" s="9">
-        <f>CONVERT(G10,"mm","in")</f>
-        <v>0.15748031496062992</v>
+      <c r="H10" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="I10" s="3">
         <v>15</v>
       </c>
-      <c r="J10" s="9">
-        <f>CONVERT(I10,"mm","in")</f>
-        <v>0.59055118110236215</v>
+      <c r="J10" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 9/16</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>30</v>
@@ -2009,28 +2048,33 @@
       <c r="B11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>35</v>
+      <c r="F11" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>35</v>
+      <c r="H11" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>35</v>
+      <c r="J11" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L11" s="5">
         <v>1</v>
@@ -2044,7 +2088,7 @@
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="3"/>
@@ -2066,23 +2110,23 @@
       <c r="E12" s="3">
         <v>9</v>
       </c>
-      <c r="F12" s="9">
-        <f>CONVERT(E12,"mm","in")</f>
-        <v>0.3543307086614173</v>
+      <c r="F12" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 3/8 </v>
       </c>
       <c r="G12" s="3">
         <v>5</v>
       </c>
-      <c r="H12" s="9">
-        <f>CONVERT(G12,"mm","in")</f>
-        <v>0.19685039370078741</v>
+      <c r="H12" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="I12" s="3">
         <v>15</v>
       </c>
-      <c r="J12" s="9">
-        <f>CONVERT(I12,"mm","in")</f>
-        <v>0.59055118110236215</v>
+      <c r="J12" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 9/16</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>30</v>
@@ -2119,23 +2163,23 @@
       <c r="E13" s="3">
         <v>10</v>
       </c>
-      <c r="F13" s="9">
-        <f>CONVERT(E13,"mm","in")</f>
-        <v>0.39370078740157483</v>
+      <c r="F13" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 3/8 </v>
       </c>
       <c r="G13" s="3">
         <v>5</v>
       </c>
-      <c r="H13" s="9">
-        <f>CONVERT(G13,"mm","in")</f>
-        <v>0.19685039370078741</v>
+      <c r="H13" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="I13" s="3">
         <v>20</v>
       </c>
-      <c r="J13" s="9">
-        <f>CONVERT(I13,"mm","in")</f>
-        <v>0.78740157480314965</v>
+      <c r="J13" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>13/16</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>30</v>
@@ -2172,23 +2216,23 @@
       <c r="E14" s="3">
         <v>12</v>
       </c>
-      <c r="F14" s="9">
-        <f>CONVERT(E14,"mm","in")</f>
-        <v>0.47244094488188981</v>
+      <c r="F14" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 1/2 </v>
       </c>
       <c r="G14" s="3">
         <v>5</v>
       </c>
-      <c r="H14" s="9">
-        <f>CONVERT(G14,"mm","in")</f>
-        <v>0.19685039370078741</v>
+      <c r="H14" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="I14" s="3">
         <v>55</v>
       </c>
-      <c r="J14" s="9">
-        <f>CONVERT(I14,"mm","in")</f>
-        <v>2.1653543307086616</v>
+      <c r="J14" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>35/16</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>30</v>
@@ -2225,23 +2269,23 @@
       <c r="E15" s="3">
         <v>17</v>
       </c>
-      <c r="F15" s="9">
-        <f>CONVERT(E15,"mm","in")</f>
-        <v>0.6692913385826772</v>
+      <c r="F15" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>11/16</v>
       </c>
       <c r="G15" s="3">
         <v>5</v>
       </c>
-      <c r="H15" s="9">
-        <f>CONVERT(G15,"mm","in")</f>
-        <v>0.19685039370078741</v>
+      <c r="H15" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="I15" s="3">
         <v>75</v>
       </c>
-      <c r="J15" s="9">
-        <f>CONVERT(I15,"mm","in")</f>
-        <v>2.9527559055118111</v>
+      <c r="J15" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>47/16</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>30</v>
@@ -2278,23 +2322,23 @@
       <c r="E16" s="3">
         <v>8</v>
       </c>
-      <c r="F16" s="9">
-        <f>CONVERT(E16,"mm","in")</f>
-        <v>0.31496062992125984</v>
+      <c r="F16" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 5/16</v>
       </c>
       <c r="G16" s="3">
         <v>4</v>
       </c>
-      <c r="H16" s="9">
-        <f>CONVERT(G16,"mm","in")</f>
-        <v>0.15748031496062992</v>
+      <c r="H16" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="I16" s="3">
         <v>17</v>
       </c>
-      <c r="J16" s="9">
-        <f>CONVERT(I16,"mm","in")</f>
-        <v>0.6692913385826772</v>
+      <c r="J16" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>11/16</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>30</v>
@@ -2326,28 +2370,28 @@
         <v>31</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="3">
         <v>5</v>
       </c>
-      <c r="F17" s="9">
-        <f>CONVERT(E17,"mm","in")</f>
-        <v>0.19685039370078741</v>
+      <c r="F17" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="G17" s="3">
         <v>4</v>
       </c>
-      <c r="H17" s="9">
-        <f>CONVERT(G17,"mm","in")</f>
-        <v>0.15748031496062992</v>
+      <c r="H17" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="I17" s="3">
         <v>10</v>
       </c>
-      <c r="J17" s="9">
-        <f>CONVERT(I17,"mm","in")</f>
-        <v>0.39370078740157483</v>
+      <c r="J17" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 3/8 </v>
       </c>
       <c r="K17" s="3" t="s">
         <v>30</v>
@@ -2384,23 +2428,23 @@
       <c r="E18" s="3">
         <v>14</v>
       </c>
-      <c r="F18" s="9">
-        <f>CONVERT(E18,"mm","in")</f>
-        <v>0.55118110236220474</v>
+      <c r="F18" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 9/16</v>
       </c>
       <c r="G18" s="3">
         <v>5</v>
       </c>
-      <c r="H18" s="9">
-        <f>CONVERT(G18,"mm","in")</f>
-        <v>0.19685039370078741</v>
+      <c r="H18" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="I18" s="3">
         <v>45</v>
       </c>
-      <c r="J18" s="9">
-        <f>CONVERT(I18,"mm","in")</f>
-        <v>1.7716535433070868</v>
+      <c r="J18" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 7/4 </v>
       </c>
       <c r="K18" s="3" t="s">
         <v>30</v>
@@ -2437,23 +2481,23 @@
       <c r="E19" s="3">
         <v>14</v>
       </c>
-      <c r="F19" s="9">
-        <f>CONVERT(E19,"mm","in")</f>
-        <v>0.55118110236220474</v>
+      <c r="F19" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 9/16</v>
       </c>
       <c r="G19" s="3">
         <v>8</v>
       </c>
-      <c r="H19" s="9">
-        <f>CONVERT(G19,"mm","in")</f>
-        <v>0.31496062992125984</v>
+      <c r="H19" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 5/16</v>
       </c>
       <c r="I19" s="3">
         <v>20</v>
       </c>
-      <c r="J19" s="9">
-        <f>CONVERT(I19,"mm","in")</f>
-        <v>0.78740157480314965</v>
+      <c r="J19" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>13/16</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>30</v>
@@ -2490,23 +2534,23 @@
       <c r="E20" s="3">
         <v>14</v>
       </c>
-      <c r="F20" s="9">
-        <f>CONVERT(E20,"mm","in")</f>
-        <v>0.55118110236220474</v>
+      <c r="F20" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 9/16</v>
       </c>
       <c r="G20" s="3">
         <v>8</v>
       </c>
-      <c r="H20" s="9">
-        <f>CONVERT(G20,"mm","in")</f>
-        <v>0.31496062992125984</v>
+      <c r="H20" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 5/16</v>
       </c>
       <c r="I20" s="3">
         <v>25</v>
       </c>
-      <c r="J20" s="9">
-        <f>CONVERT(I20,"mm","in")</f>
-        <v>0.98425196850393704</v>
+      <c r="J20" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>30</v>
@@ -2543,23 +2587,23 @@
       <c r="E21" s="3">
         <v>8</v>
       </c>
-      <c r="F21" s="9">
-        <f>CONVERT(E21,"mm","in")</f>
-        <v>0.31496062992125984</v>
+      <c r="F21" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 5/16</v>
       </c>
       <c r="G21" s="3">
         <v>4</v>
       </c>
-      <c r="H21" s="9">
-        <f>CONVERT(G21,"mm","in")</f>
-        <v>0.15748031496062992</v>
+      <c r="H21" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="I21" s="3">
         <v>25</v>
       </c>
-      <c r="J21" s="9">
-        <f>CONVERT(I21,"mm","in")</f>
-        <v>0.98425196850393704</v>
+      <c r="J21" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>30</v>
@@ -2596,23 +2640,23 @@
       <c r="E22" s="3">
         <v>10</v>
       </c>
-      <c r="F22" s="9">
-        <f>CONVERT(E22,"mm","in")</f>
-        <v>0.39370078740157483</v>
+      <c r="F22" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 3/8 </v>
       </c>
       <c r="G22" s="3">
         <v>5</v>
       </c>
-      <c r="H22" s="9">
-        <f>CONVERT(G22,"mm","in")</f>
-        <v>0.19685039370078741</v>
+      <c r="H22" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="I22" s="3">
         <v>17</v>
       </c>
-      <c r="J22" s="9">
-        <f>CONVERT(I22,"mm","in")</f>
-        <v>0.6692913385826772</v>
+      <c r="J22" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>11/16</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>30</v>
@@ -2649,23 +2693,23 @@
       <c r="E23" s="3">
         <v>16</v>
       </c>
-      <c r="F23" s="9">
-        <f>CONVERT(E23,"mm","in")</f>
-        <v>0.62992125984251968</v>
+      <c r="F23" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 5/8 </v>
       </c>
       <c r="G23" s="3">
         <v>5</v>
       </c>
-      <c r="H23" s="9">
-        <f>CONVERT(G23,"mm","in")</f>
-        <v>0.19685039370078741</v>
+      <c r="H23" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="I23" s="3">
         <v>20</v>
       </c>
-      <c r="J23" s="9">
-        <f>CONVERT(I23,"mm","in")</f>
-        <v>0.78740157480314965</v>
+      <c r="J23" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>13/16</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>30</v>
@@ -2702,23 +2746,23 @@
       <c r="E24" s="3">
         <v>10</v>
       </c>
-      <c r="F24" s="9">
-        <f>CONVERT(E24,"mm","in")</f>
-        <v>0.39370078740157483</v>
+      <c r="F24" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 3/8 </v>
       </c>
       <c r="G24" s="3">
         <v>5</v>
       </c>
-      <c r="H24" s="9">
-        <f>CONVERT(G24,"mm","in")</f>
-        <v>0.19685039370078741</v>
+      <c r="H24" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="I24" s="3">
         <v>55</v>
       </c>
-      <c r="J24" s="9">
-        <f>CONVERT(I24,"mm","in")</f>
-        <v>2.1653543307086616</v>
+      <c r="J24" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>35/16</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>30</v>
@@ -2755,23 +2799,23 @@
       <c r="E25" s="3">
         <v>8</v>
       </c>
-      <c r="F25" s="9">
-        <f>CONVERT(E25,"mm","in")</f>
-        <v>0.31496062992125984</v>
+      <c r="F25" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 5/16</v>
       </c>
       <c r="G25" s="3">
         <v>4</v>
       </c>
-      <c r="H25" s="9">
-        <f>CONVERT(G25,"mm","in")</f>
-        <v>0.15748031496062992</v>
+      <c r="H25" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="I25" s="3">
         <v>45</v>
       </c>
-      <c r="J25" s="9">
-        <f>CONVERT(I25,"mm","in")</f>
-        <v>1.7716535433070868</v>
+      <c r="J25" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 7/4 </v>
       </c>
       <c r="K25" s="3" t="s">
         <v>30</v>
@@ -2808,23 +2852,23 @@
       <c r="E26" s="3">
         <v>13</v>
       </c>
-      <c r="F26" s="9">
-        <f>CONVERT(E26,"mm","in")</f>
-        <v>0.51181102362204722</v>
+      <c r="F26" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 1/2 </v>
       </c>
       <c r="G26" s="3">
         <v>4</v>
       </c>
-      <c r="H26" s="9">
-        <f>CONVERT(G26,"mm","in")</f>
-        <v>0.15748031496062992</v>
+      <c r="H26" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="I26" s="3">
         <v>50</v>
       </c>
-      <c r="J26" s="9">
-        <f>CONVERT(I26,"mm","in")</f>
-        <v>1.9685039370078741</v>
+      <c r="J26" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>31/16</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>30</v>
@@ -2861,23 +2905,23 @@
       <c r="E27" s="3">
         <v>7</v>
       </c>
-      <c r="F27" s="9">
-        <f>CONVERT(E27,"mm","in")</f>
-        <v>0.27559055118110237</v>
+      <c r="F27" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 1/4 </v>
       </c>
       <c r="G27" s="3">
         <v>4</v>
       </c>
-      <c r="H27" s="9">
-        <f>CONVERT(G27,"mm","in")</f>
-        <v>0.15748031496062992</v>
+      <c r="H27" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="I27" s="3">
         <v>35</v>
       </c>
-      <c r="J27" s="9">
-        <f>CONVERT(I27,"mm","in")</f>
-        <v>1.3779527559055118</v>
+      <c r="J27" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">11/8 </v>
       </c>
       <c r="K27" s="3" t="s">
         <v>30</v>
@@ -2914,23 +2958,23 @@
       <c r="E28" s="3">
         <v>9</v>
       </c>
-      <c r="F28" s="9">
-        <f>CONVERT(E28,"mm","in")</f>
-        <v>0.3543307086614173</v>
+      <c r="F28" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 3/8 </v>
       </c>
       <c r="G28" s="3">
         <v>5</v>
       </c>
-      <c r="H28" s="9">
-        <f>CONVERT(G28,"mm","in")</f>
-        <v>0.19685039370078741</v>
+      <c r="H28" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="I28" s="3">
         <v>55</v>
       </c>
-      <c r="J28" s="9">
-        <f>CONVERT(I28,"mm","in")</f>
-        <v>2.1653543307086616</v>
+      <c r="J28" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>35/16</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>30</v>
@@ -2967,23 +3011,23 @@
       <c r="E29" s="3">
         <v>7</v>
       </c>
-      <c r="F29" s="9">
-        <f>CONVERT(E29,"mm","in")</f>
-        <v>0.27559055118110237</v>
+      <c r="F29" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 1/4 </v>
       </c>
       <c r="G29" s="3">
         <v>4</v>
       </c>
-      <c r="H29" s="9">
-        <f>CONVERT(G29,"mm","in")</f>
-        <v>0.15748031496062992</v>
+      <c r="H29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="I29" s="3">
         <v>35</v>
       </c>
-      <c r="J29" s="9">
-        <f>CONVERT(I29,"mm","in")</f>
-        <v>1.3779527559055118</v>
+      <c r="J29" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">11/8 </v>
       </c>
       <c r="K29" s="3" t="s">
         <v>30</v>
@@ -3020,23 +3064,23 @@
       <c r="E30" s="3">
         <v>10</v>
       </c>
-      <c r="F30" s="9">
-        <f>CONVERT(E30,"mm","in")</f>
-        <v>0.39370078740157483</v>
+      <c r="F30" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 3/8 </v>
       </c>
       <c r="G30" s="3">
         <v>5</v>
       </c>
-      <c r="H30" s="9">
-        <f>CONVERT(G30,"mm","in")</f>
-        <v>0.19685039370078741</v>
+      <c r="H30" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="I30" s="3">
         <v>55</v>
       </c>
-      <c r="J30" s="9">
-        <f>CONVERT(I30,"mm","in")</f>
-        <v>2.1653543307086616</v>
+      <c r="J30" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>35/16</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>30</v>
@@ -3073,23 +3117,23 @@
       <c r="E31" s="3">
         <v>7</v>
       </c>
-      <c r="F31" s="9">
-        <f>CONVERT(E31,"mm","in")</f>
-        <v>0.27559055118110237</v>
+      <c r="F31" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 1/4 </v>
       </c>
       <c r="G31" s="3">
         <v>4</v>
       </c>
-      <c r="H31" s="9">
-        <f>CONVERT(G31,"mm","in")</f>
-        <v>0.15748031496062992</v>
+      <c r="H31" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="I31" s="3">
         <v>15</v>
       </c>
-      <c r="J31" s="9">
-        <f>CONVERT(I31,"mm","in")</f>
-        <v>0.59055118110236215</v>
+      <c r="J31" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 9/16</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>30</v>
@@ -3126,23 +3170,23 @@
       <c r="E32" s="3">
         <v>8</v>
       </c>
-      <c r="F32" s="9">
-        <f>CONVERT(E32,"mm","in")</f>
-        <v>0.31496062992125984</v>
+      <c r="F32" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 5/16</v>
       </c>
       <c r="G32" s="3">
         <v>4</v>
       </c>
-      <c r="H32" s="9">
-        <f>CONVERT(G32,"mm","in")</f>
-        <v>0.15748031496062992</v>
+      <c r="H32" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="I32" s="3">
         <v>30</v>
       </c>
-      <c r="J32" s="9">
-        <f>CONVERT(I32,"mm","in")</f>
-        <v>1.1811023622047243</v>
+      <c r="J32" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>19/16</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>30</v>
@@ -3179,23 +3223,23 @@
       <c r="E33" s="3">
         <v>5</v>
       </c>
-      <c r="F33" s="9">
-        <f>CONVERT(E33,"mm","in")</f>
-        <v>0.19685039370078741</v>
+      <c r="F33" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="G33" s="3">
         <v>3</v>
       </c>
-      <c r="H33" s="9">
-        <f>CONVERT(G33,"mm","in")</f>
-        <v>0.11811023622047245</v>
+      <c r="H33" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 1/8 </v>
       </c>
       <c r="I33" s="3">
         <v>5</v>
       </c>
-      <c r="J33" s="9">
-        <f>CONVERT(I33,"mm","in")</f>
-        <v>0.19685039370078741</v>
+      <c r="J33" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>30</v>
@@ -3232,23 +3276,23 @@
       <c r="E34" s="3">
         <v>7</v>
       </c>
-      <c r="F34" s="9">
-        <f>CONVERT(E34,"mm","in")</f>
-        <v>0.27559055118110237</v>
+      <c r="F34" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 1/4 </v>
       </c>
       <c r="G34" s="3">
         <v>3</v>
       </c>
-      <c r="H34" s="9">
-        <f>CONVERT(G34,"mm","in")</f>
-        <v>0.11811023622047245</v>
+      <c r="H34" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 1/8 </v>
       </c>
       <c r="I34" s="3">
         <v>25</v>
       </c>
-      <c r="J34" s="9">
-        <f>CONVERT(I34,"mm","in")</f>
-        <v>0.98425196850393704</v>
+      <c r="J34" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>30</v>
@@ -3285,23 +3329,23 @@
       <c r="E35" s="3">
         <v>6</v>
       </c>
-      <c r="F35" s="9">
-        <f>CONVERT(E35,"mm","in")</f>
-        <v>0.23622047244094491</v>
+      <c r="F35" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 1/4 </v>
       </c>
       <c r="G35" s="3">
         <v>4</v>
       </c>
-      <c r="H35" s="9">
-        <f>CONVERT(G35,"mm","in")</f>
-        <v>0.15748031496062992</v>
+      <c r="H35" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="I35" s="3">
         <v>20</v>
       </c>
-      <c r="J35" s="9">
-        <f>CONVERT(I35,"mm","in")</f>
-        <v>0.78740157480314965</v>
+      <c r="J35" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>13/16</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>30</v>
@@ -3338,23 +3382,23 @@
       <c r="E36" s="3">
         <v>10</v>
       </c>
-      <c r="F36" s="9">
-        <f>CONVERT(E36,"mm","in")</f>
-        <v>0.39370078740157483</v>
+      <c r="F36" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 3/8 </v>
       </c>
       <c r="G36" s="3">
         <v>5</v>
       </c>
-      <c r="H36" s="9">
-        <f>CONVERT(G36,"mm","in")</f>
-        <v>0.19685039370078741</v>
+      <c r="H36" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="I36" s="3">
         <v>40</v>
       </c>
-      <c r="J36" s="9">
-        <f>CONVERT(I36,"mm","in")</f>
-        <v>1.5748031496062993</v>
+      <c r="J36" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>25/16</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>30</v>
@@ -3388,26 +3432,26 @@
       <c r="D37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="12">
         <v>9</v>
       </c>
-      <c r="F37" s="9">
-        <f>CONVERT(E37,"mm","in")</f>
-        <v>0.3543307086614173</v>
+      <c r="F37" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 3/8 </v>
       </c>
       <c r="G37" s="3">
         <v>5</v>
       </c>
-      <c r="H37" s="9">
-        <f>CONVERT(G37,"mm","in")</f>
-        <v>0.19685039370078741</v>
+      <c r="H37" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 3/16</v>
       </c>
       <c r="I37" s="3">
         <v>25</v>
       </c>
-      <c r="J37" s="9">
-        <f>CONVERT(I37,"mm","in")</f>
-        <v>0.98425196850393704</v>
+      <c r="J37" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>30</v>
@@ -3433,31 +3477,34 @@
         <v>46009</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>35</v>
+      <c r="F38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>35</v>
+      <c r="H38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J38" s="9" t="s">
-        <v>35</v>
+      <c r="J38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>30</v>
@@ -3483,29 +3530,34 @@
         <v>46009</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D39" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>35</v>
+      <c r="F39" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H39" s="9" t="s">
-        <v>35</v>
+      <c r="H39" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J39" s="9" t="s">
-        <v>35</v>
+      <c r="J39" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>30</v>
@@ -3531,29 +3583,34 @@
         <v>46009</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="9" t="s">
-        <v>35</v>
+      <c r="F40" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="9" t="s">
-        <v>35</v>
+      <c r="H40" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="9" t="s">
-        <v>35</v>
+      <c r="J40" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>30</v>
@@ -3579,29 +3636,34 @@
         <v>46009</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>35</v>
+      <c r="F41" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="9" t="s">
-        <v>35</v>
+      <c r="H41" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J41" s="9" t="s">
-        <v>35</v>
+      <c r="J41" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>30</v>
@@ -3627,29 +3689,34 @@
         <v>46009</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D42" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="9" t="s">
-        <v>35</v>
+      <c r="F42" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H42" s="9" t="s">
-        <v>35</v>
+      <c r="H42" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J42" s="9" t="s">
-        <v>35</v>
+      <c r="J42" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>30</v>
@@ -3669,6 +3736,767 @@
       <c r="Q42" s="5"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
+    </row>
+    <row r="43" spans="1:19" ht="24.75" customHeight="1">
+      <c r="A43" s="4">
+        <v>46010</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="3">
+        <v>9</v>
+      </c>
+      <c r="F43" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 3/8 </v>
+      </c>
+      <c r="G43" s="3">
+        <v>4</v>
+      </c>
+      <c r="H43" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 3/16</v>
+      </c>
+      <c r="I43" s="3">
+        <v>25</v>
+      </c>
+      <c r="J43" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L43" s="5">
+        <v>121</v>
+      </c>
+      <c r="M43" s="6">
+        <v>0</v>
+      </c>
+      <c r="N43" s="6">
+        <f>L43*M43</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+    </row>
+    <row r="44" spans="1:19" ht="24.75" customHeight="1">
+      <c r="A44" s="4">
+        <v>46010</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="3">
+        <v>12</v>
+      </c>
+      <c r="F44" s="13" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(E44,"mm","in")*16,0)/16=INT(ROUND(CONVERT(E44,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(E44,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(E44,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 1/2 </v>
+      </c>
+      <c r="G44" s="3">
+        <v>6</v>
+      </c>
+      <c r="H44" s="9" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(G44,"mm","in")*16,0)/16=INT(ROUND(CONVERT(G44,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(G44,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(G44,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 1/4 </v>
+      </c>
+      <c r="I44" s="3">
+        <v>20</v>
+      </c>
+      <c r="J44" s="9" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(I44,"mm","in")*16,0)/16=INT(ROUND(CONVERT(I44,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(I44,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(I44,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v>13/16</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" s="5">
+        <v>284</v>
+      </c>
+      <c r="M44" s="6">
+        <v>0</v>
+      </c>
+      <c r="N44" s="6">
+        <f>L44*M44</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+    </row>
+    <row r="45" spans="1:19" ht="24.75" customHeight="1">
+      <c r="A45" s="4">
+        <v>46010</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="3">
+        <v>10</v>
+      </c>
+      <c r="F45" s="13" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(E45,"mm","in")*16,0)/16=INT(ROUND(CONVERT(E45,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(E45,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(E45,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 3/8 </v>
+      </c>
+      <c r="G45" s="3">
+        <v>5</v>
+      </c>
+      <c r="H45" s="9" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(G45,"mm","in")*16,0)/16=INT(ROUND(CONVERT(G45,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(G45,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(G45,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 3/16</v>
+      </c>
+      <c r="I45" s="3">
+        <v>25</v>
+      </c>
+      <c r="J45" s="13">
+        <f>IFERROR(IF(ROUND(CONVERT(I45,"mm","in")*16,0)/16=INT(ROUND(CONVERT(I45,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(I45,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(I45,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v>1</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L45" s="5">
+        <v>35</v>
+      </c>
+      <c r="M45" s="6">
+        <v>0</v>
+      </c>
+      <c r="N45" s="6">
+        <f>L45*M45</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+    </row>
+    <row r="46" spans="1:19" ht="24.75" customHeight="1">
+      <c r="A46" s="4">
+        <v>46010</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="3">
+        <v>12</v>
+      </c>
+      <c r="F46" s="13" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(E46,"mm","in")*16,0)/16=INT(ROUND(CONVERT(E46,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(E46,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(E46,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 1/2 </v>
+      </c>
+      <c r="G46" s="3">
+        <v>6</v>
+      </c>
+      <c r="H46" s="9" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(G46,"mm","in")*16,0)/16=INT(ROUND(CONVERT(G46,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(G46,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(G46,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 1/4 </v>
+      </c>
+      <c r="I46" s="3">
+        <v>60</v>
+      </c>
+      <c r="J46" s="9" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(I46,"mm","in")*16,0)/16=INT(ROUND(CONVERT(I46,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(I46,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(I46,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve">19/8 </v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L46" s="5">
+        <v>1647</v>
+      </c>
+      <c r="M46" s="6">
+        <v>0</v>
+      </c>
+      <c r="N46" s="6">
+        <f>L46*M46</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+    </row>
+    <row r="47" spans="1:19" ht="24.75" customHeight="1">
+      <c r="A47" s="4">
+        <v>46010</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="3">
+        <v>15</v>
+      </c>
+      <c r="F47" s="13" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(E47,"mm","in")*16,0)/16=INT(ROUND(CONVERT(E47,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(E47,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(E47,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 9/16</v>
+      </c>
+      <c r="G47" s="3">
+        <v>9</v>
+      </c>
+      <c r="H47" s="9" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(G47,"mm","in")*16,0)/16=INT(ROUND(CONVERT(G47,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(G47,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(G47,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 3/8 </v>
+      </c>
+      <c r="I47" s="3">
+        <v>60</v>
+      </c>
+      <c r="J47" s="9" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(I47,"mm","in")*16,0)/16=INT(ROUND(CONVERT(I47,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(I47,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(I47,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve">19/8 </v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L47" s="5">
+        <v>25</v>
+      </c>
+      <c r="M47" s="6">
+        <v>0</v>
+      </c>
+      <c r="N47" s="6">
+        <f>L47*M47</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+    </row>
+    <row r="48" spans="1:19" ht="24.75" customHeight="1">
+      <c r="A48" s="4">
+        <v>46010</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="3">
+        <v>12</v>
+      </c>
+      <c r="F48" s="13" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(E48,"mm","in")*16,0)/16=INT(ROUND(CONVERT(E48,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(E48,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(E48,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 1/2 </v>
+      </c>
+      <c r="G48" s="3">
+        <v>9</v>
+      </c>
+      <c r="H48" s="9" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(G48,"mm","in")*16,0)/16=INT(ROUND(CONVERT(G48,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(G48,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(G48,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 3/8 </v>
+      </c>
+      <c r="I48" s="3">
+        <v>20</v>
+      </c>
+      <c r="J48" s="9" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(I48,"mm","in")*16,0)/16=INT(ROUND(CONVERT(I48,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(I48,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(I48,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v>13/16</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L48" s="5">
+        <v>18</v>
+      </c>
+      <c r="M48" s="6">
+        <v>0</v>
+      </c>
+      <c r="N48" s="6">
+        <f>L48*M48</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+    </row>
+    <row r="49" spans="1:19" ht="24.75" customHeight="1">
+      <c r="A49" s="4">
+        <v>46010</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="3">
+        <v>10</v>
+      </c>
+      <c r="F49" s="13" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(E49,"mm","in")*16,0)/16=INT(ROUND(CONVERT(E49,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(E49,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(E49,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 3/8 </v>
+      </c>
+      <c r="G49" s="3">
+        <v>5</v>
+      </c>
+      <c r="H49" s="9" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(G49,"mm","in")*16,0)/16=INT(ROUND(CONVERT(G49,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(G49,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(G49,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 3/16</v>
+      </c>
+      <c r="I49" s="3">
+        <v>15</v>
+      </c>
+      <c r="J49" s="9" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(I49,"mm","in")*16,0)/16=INT(ROUND(CONVERT(I49,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(I49,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(I49,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 9/16</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L49" s="5">
+        <v>116</v>
+      </c>
+      <c r="M49" s="6">
+        <v>0</v>
+      </c>
+      <c r="N49" s="6">
+        <f>L49*M49</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+    </row>
+    <row r="50" spans="1:19" ht="24.75" customHeight="1">
+      <c r="A50" s="4">
+        <v>46010</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="3">
+        <v>18</v>
+      </c>
+      <c r="F50" s="13" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(E50,"mm","in")*16,0)/16=INT(ROUND(CONVERT(E50,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(E50,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(E50,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v>11/16</v>
+      </c>
+      <c r="G50" s="3">
+        <v>9</v>
+      </c>
+      <c r="H50" s="9" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(G50,"mm","in")*16,0)/16=INT(ROUND(CONVERT(G50,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(G50,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(G50,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 3/8 </v>
+      </c>
+      <c r="I50" s="3">
+        <v>35</v>
+      </c>
+      <c r="J50" s="9" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(I50,"mm","in")*16,0)/16=INT(ROUND(CONVERT(I50,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(I50,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(I50,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve">11/8 </v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L50" s="5">
+        <v>2</v>
+      </c>
+      <c r="M50" s="6">
+        <v>0</v>
+      </c>
+      <c r="N50" s="6">
+        <f>L50*M50</f>
+        <v>0</v>
+      </c>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+    </row>
+    <row r="51" spans="1:19" ht="24.75" customHeight="1">
+      <c r="A51" s="4">
+        <v>46010</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="3">
+        <v>12</v>
+      </c>
+      <c r="F51" s="13" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(E51,"mm","in")*16,0)/16=INT(ROUND(CONVERT(E51,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(E51,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(E51,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 1/2 </v>
+      </c>
+      <c r="G51" s="3">
+        <v>5</v>
+      </c>
+      <c r="H51" s="9" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(G51,"mm","in")*16,0)/16=INT(ROUND(CONVERT(G51,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(G51,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(G51,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 3/16</v>
+      </c>
+      <c r="I51" s="3">
+        <v>35</v>
+      </c>
+      <c r="J51" s="9" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(I51,"mm","in")*16,0)/16=INT(ROUND(CONVERT(I51,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(I51,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(I51,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve">11/8 </v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L51" s="5">
+        <v>80</v>
+      </c>
+      <c r="M51" s="6">
+        <v>0</v>
+      </c>
+      <c r="N51" s="6">
+        <f>L51*M51</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+    </row>
+    <row r="52" spans="1:19" ht="24.75" customHeight="1">
+      <c r="A52" s="4">
+        <v>46010</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="3">
+        <v>17</v>
+      </c>
+      <c r="F52" s="13" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(E52,"mm","in")*16,0)/16=INT(ROUND(CONVERT(E52,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(E52,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(E52,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v>11/16</v>
+      </c>
+      <c r="G52" s="3">
+        <v>5</v>
+      </c>
+      <c r="H52" s="9" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(G52,"mm","in")*16,0)/16=INT(ROUND(CONVERT(G52,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(G52,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(G52,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 3/16</v>
+      </c>
+      <c r="I52" s="3">
+        <v>15</v>
+      </c>
+      <c r="J52" s="9" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(I52,"mm","in")*16,0)/16=INT(ROUND(CONVERT(I52,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(I52,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(I52,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 9/16</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L52" s="5">
+        <v>34</v>
+      </c>
+      <c r="M52" s="6">
+        <v>0</v>
+      </c>
+      <c r="N52" s="6">
+        <f>L52*M52</f>
+        <v>0</v>
+      </c>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+    </row>
+    <row r="53" spans="1:19" ht="24.75" customHeight="1">
+      <c r="A53" s="4">
+        <v>46010</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="3">
+        <v>15</v>
+      </c>
+      <c r="F53" s="13" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(E53,"mm","in")*16,0)/16=INT(ROUND(CONVERT(E53,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(E53,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(E53,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 9/16</v>
+      </c>
+      <c r="G53" s="3">
+        <v>5</v>
+      </c>
+      <c r="H53" s="9" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(G53,"mm","in")*16,0)/16=INT(ROUND(CONVERT(G53,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(G53,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(G53,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 3/16</v>
+      </c>
+      <c r="I53" s="3">
+        <v>5</v>
+      </c>
+      <c r="J53" s="9" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(I53,"mm","in")*16,0)/16=INT(ROUND(CONVERT(I53,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(I53,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(I53,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 3/16</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L53" s="5">
+        <v>112</v>
+      </c>
+      <c r="M53" s="6">
+        <v>0</v>
+      </c>
+      <c r="N53" s="6">
+        <f>L53*M53</f>
+        <v>0</v>
+      </c>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+    </row>
+    <row r="54" spans="1:19" ht="24.75" customHeight="1">
+      <c r="A54" s="4">
+        <v>46010</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="3">
+        <v>14</v>
+      </c>
+      <c r="F54" s="13" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(E54,"mm","in")*16,0)/16=INT(ROUND(CONVERT(E54,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(E54,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(E54,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 9/16</v>
+      </c>
+      <c r="G54" s="3">
+        <v>5</v>
+      </c>
+      <c r="H54" s="9" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(G54,"mm","in")*16,0)/16=INT(ROUND(CONVERT(G54,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(G54,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(G54,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 3/16</v>
+      </c>
+      <c r="I54" s="3">
+        <v>40</v>
+      </c>
+      <c r="J54" s="9" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(I54,"mm","in")*16,0)/16=INT(ROUND(CONVERT(I54,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(I54,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(I54,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v>25/16</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L54" s="5">
+        <v>1021</v>
+      </c>
+      <c r="M54" s="6">
+        <v>0</v>
+      </c>
+      <c r="N54" s="6">
+        <f>L54*M54</f>
+        <v>0</v>
+      </c>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+    </row>
+    <row r="55" spans="1:19" ht="24.75" customHeight="1">
+      <c r="A55" s="4">
+        <v>46010</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="3">
+        <v>12</v>
+      </c>
+      <c r="F55" s="13" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(E55,"mm","in")*16,0)/16=INT(ROUND(CONVERT(E55,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(E55,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(E55,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 1/2 </v>
+      </c>
+      <c r="G55" s="3">
+        <v>7</v>
+      </c>
+      <c r="H55" s="9" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(G55,"mm","in")*16,0)/16=INT(ROUND(CONVERT(G55,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(G55,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(G55,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v xml:space="preserve"> 1/4 </v>
+      </c>
+      <c r="I55" s="3">
+        <v>55</v>
+      </c>
+      <c r="J55" s="9" t="str">
+        <f>IFERROR(IF(ROUND(CONVERT(I55,"mm","in")*16,0)/16=INT(ROUND(CONVERT(I55,"mm","in")*16,0)/16),
+INT(ROUND(CONVERT(I55,"mm","in")*16,0)/16),
+TEXT(ROUND(CONVERT(I55,"mm","in")*16,0)/16,"??/??")), "-")</f>
+        <v>35/16</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L55" s="5">
+        <v>368</v>
+      </c>
+      <c r="M55" s="6">
+        <v>0</v>
+      </c>
+      <c r="N55" s="6">
+        <f>L55*M55</f>
+        <v>0</v>
+      </c>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
